--- a/biology/Médecine/1542_en_santé_et_médecine/1542_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1542_en_santé_et_médecine/1542_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1542_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1542_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1542 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1542_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1542_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le premier titre de lecteur royal en médecine est attribué par François Ier à Guido Guidi, médecin et chirurgien florentin[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le premier titre de lecteur royal en médecine est attribué par François Ier à Guido Guidi, médecin et chirurgien florentin.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1542_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1542_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +555,12 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jean Ferrier II, archevêque d'Arles « décide la fermeture des trente-deux établissements charitables de la ville et leur regroupement en un seul, au centre de la cité », acte qui peut être considéré comme fondateur de l'hôtel-Dieu, dont la construction ne commencera qu'en 1573[2].
-Construction d'un nouvel hôpital à Ribeauvillé[3],[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jean Ferrier II, archevêque d'Arles « décide la fermeture des trente-deux établissements charitables de la ville et leur regroupement en un seul, au centre de la cité », acte qui peut être considéré comme fondateur de l'hôtel-Dieu, dont la construction ne commencera qu'en 1573.
+Construction d'un nouvel hôpital à Ribeauvillé,.</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1542_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1542_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,12 +588,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Parution de la traduction en français, par Jean Canappe, du Guidon (1340) de Guy de Chauliac (c.1300-1368[5]).
-Première édition, parue en latin, à Bâle chez Michael Isingrin, de l'Herbier[6] de Leonhart Fuchs ; la deuxième, en allemand, sortira des mêmes presses l'année suivante 1543[7].
-Jean Fernel publie le De naturali parte medicinae, première ébauche de sa Physiologia[8].
-Jacobus Sylvius, De medicamentorum simplicium delectu, à Paris, chez Jacques Gazeau[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Parution de la traduction en français, par Jean Canappe, du Guidon (1340) de Guy de Chauliac (c.1300-1368).
+Première édition, parue en latin, à Bâle chez Michael Isingrin, de l'Herbier de Leonhart Fuchs ; la deuxième, en allemand, sortira des mêmes presses l'année suivante 1543.
+Jean Fernel publie le De naturali parte medicinae, première ébauche de sa Physiologia.
+Jacobus Sylvius, De medicamentorum simplicium delectu, à Paris, chez Jacques Gazeau.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1542_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1542_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +623,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>10 janvier : Wolfgang Capiton (né en 1478), médecin, théologien et canoniste alsacien[10].
-1542[11], 1545 ou 1564[12] : Matteo Corti (né en 1475), professeur de médecine à l'université de Bologne.</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>10 janvier : Wolfgang Capiton (né en 1478), médecin, théologien et canoniste alsacien.
+1542, 1545 ou 1564 : Matteo Corti (né en 1475), professeur de médecine à l'université de Bologne.</t>
         </is>
       </c>
     </row>
